--- a/toDo.xlsx
+++ b/toDo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S5\mr Rojo\ExamenFinal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\S5\mr Rojo\webservice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F59361-6CE7-4D1D-9545-CE30F9E45EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3475A6F-3705-4779-8665-A86047BB6155}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{644A27F5-2674-4B43-A095-965398C86572}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>tache</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>miaraka</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -651,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD51F12B-88A2-4F82-8FA6-A3EE75113E1F}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="99" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -703,6 +709,9 @@
       <c r="D2" t="s">
         <v>90</v>
       </c>
+      <c r="F2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -714,16 +723,25 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
+      <c r="F3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>31</v>
       </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
@@ -732,6 +750,9 @@
       <c r="C6" t="s">
         <v>13</v>
       </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
@@ -756,6 +777,9 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -802,6 +826,9 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -809,6 +836,9 @@
       </c>
       <c r="C15" t="s">
         <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -818,8 +848,11 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -827,7 +860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -838,15 +871,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -854,7 +890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>16</v>
       </c>
@@ -862,7 +898,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -873,7 +909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -881,7 +917,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -892,7 +928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>12</v>
       </c>
@@ -900,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -911,17 +947,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -932,7 +968,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>16</v>
       </c>
@@ -940,7 +976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -951,7 +987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>45</v>
       </c>
